--- a/biology/Biologie cellulaire et moléculaire/Ovuliparité/Ovuliparité.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Ovuliparité/Ovuliparité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ovuliparit%C3%A9</t>
+          <t>Ovuliparité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>L'ovuliparité est un mode de reproduction consistant en l'émission d'ovules ou ovocytes non fécondés dans le milieu[1]. Dans ce mode de reproduction, la fécondation est externe.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>L'ovuliparité est un mode de reproduction consistant en l'émission d'ovules ou ovocytes non fécondés dans le milieu. Dans ce mode de reproduction, la fécondation est externe.
 L'ovuliparité est un trait répandu chez un grand nombre de taxons aquatiques, excepté :
 les amniotes ;
 les céphalopodes ;
